--- a/0_1_Output_Data/1_GVA_Evaluation_series/first_release_yoy_GVA.xlsx
+++ b/0_1_Output_Data/1_GVA_Evaluation_series/first_release_yoy_GVA.xlsx
@@ -14,21 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -81,12 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -398,168 +455,168 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>38352</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1.391776533033284</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>38717</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1.27802473908003</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>39082</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2.890422778257129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>39447</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2.990545114976051</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>39813</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1.051370172741239</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>40178</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>-5.540902995082697</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>40543</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3.84054219419212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>40908</v>
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2.990933732124512</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>41274</v>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.9640567145308365</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>41639</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.5936307438237698</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>42004</v>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1.488173692156547</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>42369</v>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1.269579554822742</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>42735</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1.736892145722679</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>43100</v>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2.602264219434169</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>43465</v>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1.474050117703984</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>43830</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.502123466059734</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>44196</v>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>-5.63794754419974</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>44561</v>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>2.903423732973365</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>44926</v>
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1.875905302400649</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
-        <v>45291</v>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0.1602340810923808</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>45657</v>
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>-0.2455958059793151</v>

--- a/0_1_Output_Data/1_GVA_Evaluation_series/first_release_yoy_GVA.xlsx
+++ b/0_1_Output_Data/1_GVA_Evaluation_series/first_release_yoy_GVA.xlsx
@@ -14,81 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>date</t>
   </si>
-  <si>
-    <t>2004Q4</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q4</t>
-  </si>
-  <si>
-    <t>2023Q4</t>
-  </si>
-  <si>
-    <t>2024Q4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -141,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -455,168 +398,168 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>38352</v>
       </c>
       <c r="B2">
         <v>1.391776533033284</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>38717</v>
       </c>
       <c r="B3">
         <v>1.27802473908003</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>39082</v>
       </c>
       <c r="B4">
         <v>2.890422778257129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>39447</v>
       </c>
       <c r="B5">
         <v>2.990545114976051</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="2">
+        <v>39813</v>
       </c>
       <c r="B6">
         <v>1.051370172741239</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>40178</v>
       </c>
       <c r="B7">
         <v>-5.540902995082697</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="2">
+        <v>40543</v>
       </c>
       <c r="B8">
         <v>3.84054219419212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="2">
+        <v>40908</v>
       </c>
       <c r="B9">
         <v>2.990933732124512</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="2">
+        <v>41274</v>
       </c>
       <c r="B10">
         <v>0.9640567145308365</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="2">
+        <v>41639</v>
       </c>
       <c r="B11">
         <v>0.5936307438237698</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="2">
+        <v>42004</v>
       </c>
       <c r="B12">
         <v>1.488173692156547</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="2">
+        <v>42369</v>
       </c>
       <c r="B13">
         <v>1.269579554822742</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="2">
+        <v>42735</v>
       </c>
       <c r="B14">
         <v>1.736892145722679</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="2">
+        <v>43100</v>
       </c>
       <c r="B15">
         <v>2.602264219434169</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="2">
+        <v>43465</v>
       </c>
       <c r="B16">
         <v>1.474050117703984</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="A17" s="2">
+        <v>43830</v>
       </c>
       <c r="B17">
         <v>0.502123466059734</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="2">
+        <v>44196</v>
       </c>
       <c r="B18">
         <v>-5.63794754419974</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="2">
+        <v>44561</v>
       </c>
       <c r="B19">
         <v>2.903423732973365</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="2">
+        <v>44926</v>
       </c>
       <c r="B20">
         <v>1.875905302400649</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="A21" s="2">
+        <v>45291</v>
       </c>
       <c r="B21">
         <v>0.1602340810923808</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="A22" s="2">
+        <v>45657</v>
       </c>
       <c r="B22">
         <v>-0.2455958059793151</v>
